--- a/Data/Sheet.xlsx
+++ b/Data/Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\C# Tool Revit\DeepBIM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCD7BCC-4420-4E6E-9C0B-86FF7ACF25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C85CE9B-25DF-4025-8B64-E829DA8D5C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{12C744B2-D8DB-4542-A2F4-EE7DB2D2B050}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Sheet Number</t>
   </si>
@@ -44,64 +44,91 @@
     <t>Sheet Name</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>Test-01</t>
-  </si>
-  <si>
-    <t>Test-02</t>
-  </si>
-  <si>
-    <t>Test-03</t>
-  </si>
-  <si>
-    <t>Test-04</t>
-  </si>
-  <si>
-    <t>Test-05</t>
-  </si>
-  <si>
-    <t>Test-06</t>
-  </si>
-  <si>
-    <t>Test-07</t>
-  </si>
-  <si>
-    <t>Test-08</t>
-  </si>
-  <si>
-    <t>Test-09</t>
-  </si>
-  <si>
-    <t>Test-10</t>
+    <t>Old Sheet Number</t>
+  </si>
+  <si>
+    <t>A10101</t>
+  </si>
+  <si>
+    <t>A10202</t>
+  </si>
+  <si>
+    <t>A10303</t>
+  </si>
+  <si>
+    <t>A10404</t>
+  </si>
+  <si>
+    <t>A10505</t>
+  </si>
+  <si>
+    <t>A10606</t>
+  </si>
+  <si>
+    <t>A10707</t>
+  </si>
+  <si>
+    <t>A10808</t>
+  </si>
+  <si>
+    <t>A10909</t>
+  </si>
+  <si>
+    <t>A11010</t>
+  </si>
+  <si>
+    <t>A11111</t>
+  </si>
+  <si>
+    <t>A11212</t>
+  </si>
+  <si>
+    <t>A11313</t>
+  </si>
+  <si>
+    <t>A11414</t>
+  </si>
+  <si>
+    <t>Test-015</t>
+  </si>
+  <si>
+    <t>Test-016</t>
+  </si>
+  <si>
+    <t>Test-017</t>
+  </si>
+  <si>
+    <t>Test-018</t>
+  </si>
+  <si>
+    <t>Test-019</t>
+  </si>
+  <si>
+    <t>Test-020</t>
+  </si>
+  <si>
+    <t>Test-021</t>
+  </si>
+  <si>
+    <t>Test-022</t>
+  </si>
+  <si>
+    <t>Test-023</t>
+  </si>
+  <si>
+    <t>Test-024</t>
+  </si>
+  <si>
+    <t>Test-025</t>
+  </si>
+  <si>
+    <t>Test-026</t>
+  </si>
+  <si>
+    <t>Test-027</t>
+  </si>
+  <si>
+    <t>Test-028</t>
   </si>
 </sst>
 </file>
@@ -479,104 +506,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDE88DA-6010-4091-879C-415A6C93FD40}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet.xlsx
+++ b/Data/Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\C# Tool Revit\DeepBIM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C85CE9B-25DF-4025-8B64-E829DA8D5C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4922BE3B-275D-4327-9993-93A2F1C1B785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{12C744B2-D8DB-4542-A2F4-EE7DB2D2B050}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Sheet Number</t>
   </si>
@@ -77,58 +77,7 @@
     <t>A11010</t>
   </si>
   <si>
-    <t>A11111</t>
-  </si>
-  <si>
-    <t>A11212</t>
-  </si>
-  <si>
-    <t>A11313</t>
-  </si>
-  <si>
-    <t>A11414</t>
-  </si>
-  <si>
-    <t>Test-015</t>
-  </si>
-  <si>
-    <t>Test-016</t>
-  </si>
-  <si>
-    <t>Test-017</t>
-  </si>
-  <si>
-    <t>Test-018</t>
-  </si>
-  <si>
-    <t>Test-019</t>
-  </si>
-  <si>
-    <t>Test-020</t>
-  </si>
-  <si>
-    <t>Test-021</t>
-  </si>
-  <si>
-    <t>Test-022</t>
-  </si>
-  <si>
-    <t>Test-023</t>
-  </si>
-  <si>
-    <t>Test-024</t>
-  </si>
-  <si>
-    <t>Test-025</t>
-  </si>
-  <si>
-    <t>Test-026</t>
-  </si>
-  <si>
-    <t>Test-027</t>
-  </si>
-  <si>
-    <t>Test-028</t>
+    <t>Test-015-DUE</t>
   </si>
 </sst>
 </file>
@@ -506,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDE88DA-6010-4091-879C-415A6C93FD40}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,7 +509,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -582,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,39 +586,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Sheet.xlsx
+++ b/Data/Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\C# Tool Revit\DeepBIM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4922BE3B-275D-4327-9993-93A2F1C1B785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CB7397-1240-41C3-8688-83627A8B6D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{12C744B2-D8DB-4542-A2F4-EE7DB2D2B050}"/>
+    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11505" xr2:uid="{12C744B2-D8DB-4542-A2F4-EE7DB2D2B050}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Sheet Number</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Test-015-DUE</t>
+  </si>
+  <si>
+    <t>Test-015-DUE_TESTxxx</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +589,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
